--- a/Elliot/Hours Consolidation.xlsx
+++ b/Elliot/Hours Consolidation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -44,22 +44,19 @@
     <t>Joe</t>
   </si>
   <si>
-    <t>28h</t>
-  </si>
-  <si>
-    <t>26h</t>
-  </si>
-  <si>
-    <t>38h 30m</t>
-  </si>
-  <si>
-    <t>36h</t>
-  </si>
-  <si>
-    <t>30h</t>
-  </si>
-  <si>
-    <t>Start @ 15</t>
+    <t>89h 30m</t>
+  </si>
+  <si>
+    <t>56h</t>
+  </si>
+  <si>
+    <t>184h 56m</t>
+  </si>
+  <si>
+    <t>139h 25m</t>
+  </si>
+  <si>
+    <t>82h</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -475,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -483,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -491,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -507,9 +504,7 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
